--- a/storage/excel/shnq/6.xlsx
+++ b/storage/excel/shnq/6.xlsx
@@ -29,14 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
-  <si>
-    <t>Hujjat nomi</t>
-  </si>
-  <si>
-    <t>ShNQ 3.01.01-22 “Qurilishda ishlab chiqarishni tashkil qilish” shaharsozlik normalari va
-qoidalari</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">1. Mazkur ShNQ barcha loyihalash va qurilish-montaj tashkilotlari uchun mo‘ljallangan. </t>
   </si>
@@ -585,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -600,7 +593,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -918,726 +910,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C272"/>
+  <dimension ref="A1:B165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B47"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="161.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="161.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>53</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>53</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+    </row>
+    <row r="4" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>53</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
-        <v>53</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="5" spans="1:2" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>54</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>53</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="6" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>55</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>54</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    <row r="7" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>55</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+    <row r="8" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>55</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="225" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+    <row r="9" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>55</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>55</v>
-      </c>
-      <c r="C8" s="3" t="s">
+    <row r="10" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>56</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>55</v>
-      </c>
-      <c r="C9" s="3" t="s">
+    <row r="11" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>56</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+    <row r="12" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>56</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+    <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>56</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+    <row r="14" spans="1:2" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>56</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+    <row r="15" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>56</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+    <row r="16" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>56</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="225" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+    <row r="17" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>56</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
+    <row r="18" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>56</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+    <row r="19" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>56</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
+    <row r="20" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>56</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>56</v>
-      </c>
-      <c r="C19" s="3" t="s">
+    <row r="21" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>57</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <v>56</v>
-      </c>
-      <c r="C20" s="3" t="s">
+    <row r="22" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>57</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
+    <row r="23" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>57</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <v>57</v>
-      </c>
-      <c r="C22" s="3" t="s">
+    <row r="24" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>58</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>57</v>
-      </c>
-      <c r="C23" s="3" t="s">
+    <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>58</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
+    <row r="26" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>58</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <v>58</v>
-      </c>
-      <c r="C25" s="3" t="s">
+    <row r="27" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>59</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
-        <v>58</v>
-      </c>
-      <c r="C26" s="3" t="s">
+    <row r="28" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>59</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
+    <row r="29" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>59</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="2">
+    <row r="30" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>59</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
+    <row r="31" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>59</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="2">
+    <row r="32" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>59</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
-        <v>59</v>
-      </c>
-      <c r="C31" s="3" t="s">
+    <row r="33" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>60</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
-        <v>59</v>
-      </c>
-      <c r="C32" s="3" t="s">
+    <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>60</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="B33" s="2">
-        <v>60</v>
-      </c>
-      <c r="C33" s="3" t="s">
+    <row r="35" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>60</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B34" s="2">
-        <v>60</v>
-      </c>
-      <c r="C34" s="3" t="s">
+    <row r="36" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>60</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B35" s="2">
-        <v>60</v>
-      </c>
-      <c r="C35" s="3" t="s">
+    <row r="37" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>60</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="2">
-        <v>60</v>
-      </c>
-      <c r="C36" s="3" t="s">
+    <row r="38" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>60</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B37" s="2">
-        <v>60</v>
-      </c>
-      <c r="C37" s="3" t="s">
+    <row r="39" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>60</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
-        <v>60</v>
-      </c>
-      <c r="C38" s="3" t="s">
+    <row r="40" spans="1:2" ht="281.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>60</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="300" x14ac:dyDescent="0.25">
-      <c r="B39" s="2">
-        <v>60</v>
-      </c>
-      <c r="C39" s="3" t="s">
+    <row r="41" spans="1:2" ht="318.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>60</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="281.25" x14ac:dyDescent="0.25">
-      <c r="B40" s="2">
-        <v>60</v>
-      </c>
-      <c r="C40" s="3" t="s">
+    <row r="42" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>60</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="318.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="2">
-        <v>60</v>
-      </c>
-      <c r="C41" s="3" t="s">
+    <row r="43" spans="1:2" ht="393.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>60</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="2">
-        <v>60</v>
-      </c>
-      <c r="C42" s="3" t="s">
+    <row r="44" spans="1:2" ht="243.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>60</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="393.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="2">
-        <v>60</v>
-      </c>
-      <c r="C43" s="3" t="s">
+    <row r="45" spans="1:2" ht="281.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>60</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="243.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="2">
-        <v>60</v>
-      </c>
-      <c r="C44" s="3" t="s">
+    <row r="46" spans="1:2" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>60</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="281.25" x14ac:dyDescent="0.25">
-      <c r="B45" s="2">
-        <v>60</v>
-      </c>
-      <c r="C45" s="3" t="s">
+    <row r="47" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>60</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="B46" s="2">
-        <v>60</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B47" s="2">
-        <v>60</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="6"/>
-      <c r="C165" s="7"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="6"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="6"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="6"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="6"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="6"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="6"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="6"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="6"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="6"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="6"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="6"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="6"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="6"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="6"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="6"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="6"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="6"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="6"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="6"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="6"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="6"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="6"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="6"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="6"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="6"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="6"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="6"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="6"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="6"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="6"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="6"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="6"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="6"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="6"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="6"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="6"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="6"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="6"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="6"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="6"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="6"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="6"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="6"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="6"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="6"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="6"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="6"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="6"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="6"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="6"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="6"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="6"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="6"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="6"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="6"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="6"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="6"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="6"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="6"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="6"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="6"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="6"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="6"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="6"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="6"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="6"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="6"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="6"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="6"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="6"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="6"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="6"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="6"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="6"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="6"/>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="6"/>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="6"/>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="6"/>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="6"/>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="6"/>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="6"/>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="6"/>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="6"/>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="6"/>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="6"/>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="6"/>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="6"/>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="6"/>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="6"/>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="6"/>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="6"/>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="6"/>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="6"/>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="6"/>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="6"/>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="6"/>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="6"/>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="6"/>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="6"/>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="6"/>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="6"/>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="6"/>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="6"/>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="6"/>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="6"/>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="6"/>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="6"/>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
